--- a/mmpcalculator.xlsx
+++ b/mmpcalculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="14360" yWindow="460" windowWidth="14360" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Section:</t>
   </si>
@@ -51,16 +51,35 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +102,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,15 +392,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -389,56 +419,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
-        <v>11610</v>
+        <v>22478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>